--- a/hasil/2023_01_lipa_9.xlsx
+++ b/hasil/2023_01_lipa_9.xlsx
@@ -112,13 +112,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 05 Juli 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
   </si>
   <si>
-    <t>Panitera,</t>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -238,6 +238,82 @@
   <borders count="18">
     <border/>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -260,9 +336,25 @@
       </bottom>
     </border>
     <border>
-      <top style="double">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -271,47 +363,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -334,60 +388,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="thin">
@@ -407,176 +407,176 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="10" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="12" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="13" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="4" fillId="3" borderId="14" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -904,353 +904,353 @@
     <col min="20" max="20" width="12.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" customHeight="1" ht="20.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+    </row>
+    <row r="2" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" customHeight="1" ht="20.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+    </row>
+    <row r="3" spans="1:20" customHeight="1" ht="15.75">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="1:20" customHeight="1" ht="21">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:20" customHeight="1" ht="17.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="5" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="12"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:20" customHeight="1" ht="16.5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="27"/>
+      <c r="H6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="18" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="19"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="1:20" customHeight="1" ht="69">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="24" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="T7" s="38" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" customHeight="1" ht="42.75">
-      <c r="A8" s="13"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:20" customHeight="1" ht="18">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="12">
         <v>9</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="12">
         <v>10</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="12">
         <v>11</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="12">
         <v>12</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="12">
         <v>13</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="12">
         <v>14</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="12">
         <v>15</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="12">
         <v>16</v>
       </c>
-      <c r="Q9" s="35">
+      <c r="Q9" s="12">
         <v>17</v>
       </c>
-      <c r="R9" s="35">
+      <c r="R9" s="12">
         <v>18</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="12">
         <v>19</v>
       </c>
-      <c r="T9" s="35">
+      <c r="T9" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:20" customHeight="1" ht="17.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" customHeight="1" ht="16.5">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" customHeight="1" ht="16.5">
       <c r="A12" s="41">
@@ -1318,262 +1318,262 @@
       </c>
     </row>
     <row r="13" spans="1:20" customHeight="1" ht="17.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" customHeight="1" ht="16.5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:20" customHeight="1" ht="20">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="36" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="1:20" customHeight="1" ht="20">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="36" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="34" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
     </row>
     <row r="17" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A19" s="37"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A20" s="37"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" customHeight="1" ht="20">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="36" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="34" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:20" customHeight="1" ht="20">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="34" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" customHeight="1" ht="15.75">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
@@ -1606,8 +1606,8 @@
     <mergeCell ref="D6:E7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="2.25" right="0.38" top="0.74803149606299" bottom="0.74803149606299" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="85" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="5" orientation="landscape" scale="99" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_9.xlsx
+++ b/hasil/2023_01_lipa_9.xlsx
@@ -112,7 +112,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_9.xlsx
+++ b/hasil/2023_01_lipa_9.xlsx
@@ -112,7 +112,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
